--- a/samples/testVector/testVector.xlsx
+++ b/samples/testVector/testVector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evandson\Desktop\TestVector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evandson\Desktop\MSD Toolbox\samples\testVector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A7FBD-075B-4C66-95B3-59FD18E9E8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A30CC-BA20-42E0-80F6-3D5B9B1333A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="6552" windowWidth="25668" windowHeight="12924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case01" sheetId="2" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,7 @@
         <v>2.0250689523988292</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E37" si="3">B4+C4</f>
+        <f t="shared" ref="E4:F37" si="3">B4+C4</f>
         <v>5.1819264140686432</v>
       </c>
     </row>
